--- a/Result/线上线下对比.xlsx
+++ b/Result/线上线下对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7950"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>提交时间</t>
   </si>
@@ -29,18 +29,27 @@
   <si>
     <t>053023</t>
   </si>
+  <si>
+    <t>result1</t>
+  </si>
+  <si>
+    <t>result2</t>
+  </si>
+  <si>
+    <t>result3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,21 +65,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,6 +87,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -92,86 +109,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +147,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -205,6 +183,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,61 +217,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,121 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +408,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,20 +448,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +466,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,162 +508,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,13 +1016,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="3" width="12.625"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1047,12 +1052,37 @@
         <v>0.794407</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3">
         <v>0.86879773540565</v>
       </c>
       <c r="C3">
         <v>0.860730787765399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0.871334721999679</v>
+      </c>
+      <c r="C4">
+        <v>0.863218260277083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.883352026918763</v>
+      </c>
+      <c r="C5">
+        <v>0.876071043522669</v>
       </c>
     </row>
   </sheetData>

--- a/Result/线上线下对比.xlsx
+++ b/Result/线上线下对比.xlsx
@@ -44,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,7 +65,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,7 +73,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,45 +94,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,37 +164,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -184,25 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +217,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,43 +307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,13 +331,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,96 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +408,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,7 +480,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,62 +503,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -528,138 +528,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1039,7 +1042,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -1074,7 +1077,7 @@
         <v>0.863218260277083</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1083,6 +1086,9 @@
       </c>
       <c r="C5">
         <v>0.876071043522669</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.795443</v>
       </c>
     </row>
   </sheetData>

--- a/Result/线上线下对比.xlsx
+++ b/Result/线上线下对比.xlsx
@@ -10,33 +10,193 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>提交时间</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>F1_score</t>
-  </si>
-  <si>
-    <t>053023</t>
-  </si>
-  <si>
-    <t>result1</t>
-  </si>
-  <si>
-    <t>result2</t>
-  </si>
-  <si>
-    <t>result3</t>
+    <t>线下F1</t>
+  </si>
+  <si>
+    <t>线上F1</t>
+  </si>
+  <si>
+    <t>改动</t>
+  </si>
+  <si>
+    <t>060523</t>
+  </si>
+  <si>
+    <t>060612</t>
+  </si>
+  <si>
+    <t>不fillna(0)</t>
+  </si>
+  <si>
+    <t>060623</t>
+  </si>
+  <si>
+    <t>增加部分特征（activity针对每一天之前）</t>
+  </si>
+  <si>
+    <t>060712</t>
+  </si>
+  <si>
+    <t>增加全部特征</t>
+  </si>
+  <si>
+    <t>060723</t>
+  </si>
+  <si>
+    <t>调参</t>
+  </si>
+  <si>
+    <t>060812</t>
+  </si>
+  <si>
+    <t>选出结果前23727个</t>
+  </si>
+  <si>
+    <t>060823</t>
+  </si>
+  <si>
+    <t>筛选&gt;80特征，完全调参，阈值0.4453298901058209</t>
+  </si>
+  <si>
+    <t>060912</t>
+  </si>
+  <si>
+    <t>筛选&gt;80特征，完全调参，阈值0.4</t>
+  </si>
+  <si>
+    <t>060923</t>
+  </si>
+  <si>
+    <t>试图恢复原来特征</t>
+  </si>
+  <si>
+    <t>061012</t>
+  </si>
+  <si>
+    <t>全部特征，0605参数，阈值自动,23760个</t>
+  </si>
+  <si>
+    <t>061023</t>
+  </si>
+  <si>
+    <t>全部特征，0605参数，阈值0.4，25218个</t>
+  </si>
+  <si>
+    <t>到底是不是调参的问题，结果高，说明原来参数好，后来的调参有大问题，全部特征没问题，改调参方式，继续加特征或筛选特征</t>
+  </si>
+  <si>
+    <t>061123</t>
+  </si>
+  <si>
+    <t>筛选前26特征，0605参数，阈值0.4，25104个</t>
+  </si>
+  <si>
+    <t>submit_result_611924</t>
+  </si>
+  <si>
+    <t>全部特征，F1判据调参，阈值0.4,25195个</t>
+  </si>
+  <si>
+    <t>{'num_leaves': 20, 'max_depth': 4, 'max_bin': 5, 'min_data_in_leaf': 80, 'feature_fraction': 0.5, 'bagging_fraction': 0.9, 'bagging_freq': 25}</t>
+  </si>
+  <si>
+    <t>submit_result_6101935</t>
+  </si>
+  <si>
+    <t>选择前26特征，F1判据调参，阈值0.4,25933个</t>
+  </si>
+  <si>
+    <t>{'num_leaves': 82, 'max_depth': 7, 'max_bin': 5, 'min_data_in_leaf': 40, 'feature_fraction': 0.6, 'bagging_fraction': 0.5, 'bagging_freq': 35, 'lambda_l1': 1.0, 'lambda_l2': 0, 'min_split_gain': 0.1}</t>
+  </si>
+  <si>
+    <t>submit_result_6111048</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>num_leaves</t>
+  </si>
+  <si>
+    <t>max_depth</t>
+  </si>
+  <si>
+    <t>max_bin</t>
+  </si>
+  <si>
+    <t>min_data_in_leaf</t>
+  </si>
+  <si>
+    <t>feature_fraction</t>
+  </si>
+  <si>
+    <t>bagging_fraction</t>
+  </si>
+  <si>
+    <t>bagging_freq</t>
+  </si>
+  <si>
+    <t>lambda_1</t>
+  </si>
+  <si>
+    <t>lambda_2</t>
+  </si>
+  <si>
+    <t>min_split_gain</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>部分数据</t>
+  </si>
+  <si>
+    <t>bagging频率</t>
+  </si>
+  <si>
+    <t>部分特征</t>
+  </si>
+  <si>
+    <t>lambda_l1</t>
+  </si>
+  <si>
+    <t>lambda_l2</t>
+  </si>
+  <si>
+    <t>处理过拟合</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>best结果时</t>
+  </si>
+  <si>
+    <t>all_features</t>
+  </si>
+  <si>
+    <t>58个 &gt;80</t>
+  </si>
+  <si>
+    <t>84.32min</t>
   </si>
 </sst>
 </file>
@@ -45,8 +205,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -658,11 +818,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1019,18 +1176,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="12.625"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1040,55 +1199,201 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.86535277466218</v>
+        <v>0.810730253353204</v>
       </c>
       <c r="C2">
-        <v>0.857239934311116</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.794407</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
+        <v>0.819962</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.86879773540565</v>
+        <v>0.811205273069679</v>
       </c>
       <c r="C3">
-        <v>0.860730787765399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
+        <v>0.819854</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.871334721999679</v>
+        <v>0.810335349092908</v>
       </c>
       <c r="C4">
-        <v>0.863218260277083</v>
+        <v>0.820156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.883352026918763</v>
+        <v>0.81234781242636</v>
       </c>
       <c r="C5">
-        <v>0.876071043522669</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.795443</v>
+        <v>0.818387</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.813460935048635</v>
+      </c>
+      <c r="C6">
+        <v>0.818621</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7">
+        <v>0.816496</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.807523917626074</v>
+      </c>
+      <c r="C8">
+        <v>0.81785</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.818602</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>0.8113163064833</v>
+      </c>
+      <c r="C10">
+        <v>0.819346</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0.809469758391438</v>
+      </c>
+      <c r="C11">
+        <v>0.818371</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.811240554156171</v>
+      </c>
+      <c r="C12">
+        <v>0.818633</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0.810116608887488</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14">
+        <v>0.813138456702813</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15">
+        <v>0.810662053782041</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1101,14 +1406,50 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1118,16 +1459,316 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1">
+        <v>1000</v>
+      </c>
+      <c r="C1">
+        <v>500</v>
+      </c>
+      <c r="D1">
+        <v>300</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <v>50</v>
+      </c>
+      <c r="G1">
+        <v>40</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <v>0.72505058680696</v>
+      </c>
+      <c r="C2">
+        <v>0.797342192691029</v>
+      </c>
+      <c r="D2">
+        <v>0.809631911788552</v>
+      </c>
+      <c r="E2">
+        <v>0.808983298200097</v>
+      </c>
+      <c r="F2">
+        <v>0.807848224420301</v>
+      </c>
+      <c r="G2">
+        <v>0.809307604994324</v>
+      </c>
+      <c r="H2">
+        <v>0.811091292362575</v>
+      </c>
+      <c r="I2">
+        <v>0.809956218582779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>73</v>
+      </c>
+      <c r="H3">
+        <v>156</v>
+      </c>
+      <c r="I3">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1">
+        <v>0.9</v>
+      </c>
+      <c r="F1">
+        <v>0.6</v>
+      </c>
+      <c r="G1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>0.85</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>249</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Result/线上线下对比.xlsx
+++ b/Result/线上线下对比.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>提交时间</t>
   </si>
@@ -115,6 +116,9 @@
     <t>submit_result_6101935</t>
   </si>
   <si>
+    <t>061212</t>
+  </si>
+  <si>
     <t>选择前26特征，F1判据调参，阈值0.4,25933个</t>
   </si>
   <si>
@@ -124,6 +128,9 @@
     <t>submit_result_6111048</t>
   </si>
   <si>
+    <t>全部特征</t>
+  </si>
+  <si>
     <t>参数</t>
   </si>
   <si>
@@ -197,6 +204,57 @@
   </si>
   <si>
     <t>84.32min</t>
+  </si>
+  <si>
+    <t>061412</t>
+  </si>
+  <si>
+    <t>params ={'bagging_fraction': 0.9,</t>
+  </si>
+  <si>
+    <t>不调参</t>
+  </si>
+  <si>
+    <t>不对max_bin做限制</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'bagging_freq': 25,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'boosting_type': 'gbdt',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'feature_fraction': 0.5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'lambda_l1': 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'lambda_l2': 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'learning_rate': 0.01,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'max_depth': 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'metric': ['auc'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'min_data_in_leaf': 80,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'min_split_gain': 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'num_leaves': 20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'objective': 'binary',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'verbose': 1}</t>
   </si>
 </sst>
 </file>
@@ -204,10 +262,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,7 +283,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +387,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -248,79 +412,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,42 +425,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -377,6 +435,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,67 +501,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,97 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,30 +626,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,6 +644,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -621,6 +688,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,30 +726,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -676,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,133 +746,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1276,7 +1334,6 @@
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7"/>
       <c r="C7">
         <v>0.816496</v>
       </c>
@@ -1372,6 +1429,9 @@
       <c r="B14">
         <v>0.813138456702813</v>
       </c>
+      <c r="C14">
+        <v>0.819713</v>
+      </c>
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -1382,18 +1442,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="1:21">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B15">
         <v>0.810662053782041</v>
       </c>
+      <c r="C15">
+        <v>0.818164</v>
+      </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U15" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1416,37 +1487,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1469,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>1000</v>
@@ -1498,7 +1569,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0.72505058680696</v>
@@ -1527,7 +1598,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1564,23 +1635,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1">
         <v>0.9</v>
@@ -1591,16 +1662,19 @@
       <c r="G1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1611,16 +1685,19 @@
       <c r="G2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0.85</v>
@@ -1631,10 +1708,13 @@
       <c r="G3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1648,10 +1728,13 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1665,10 +1748,13 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>255</v>
@@ -1679,10 +1765,13 @@
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -1696,16 +1785,19 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>36</v>
@@ -1713,10 +1805,13 @@
       <c r="F8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1730,10 +1825,13 @@
       <c r="G9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>31</v>
@@ -1747,24 +1845,129 @@
       <c r="G10">
         <v>25</v>
       </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="7:7">
       <c r="G13" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1">
+        <v>0.812976199827193</v>
+      </c>
+      <c r="J1">
+        <v>0.819877</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
